--- a/scripts/SMET/datasets/enriched_dataset.xlsx
+++ b/scripts/SMET/datasets/enriched_dataset.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The CVE affects the Ibm Security_verify_access (Version 20.07) on Application.</t>
+          <t>The CVE affects the Ibm Security_verify_access Application.</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The CVE affects the Microsoft Windows_10 (Version -) on Operating System.</t>
+          <t>The CVE affects the Microsoft Windows_10 Operating System.</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The CVE affects the Fig2dev_project Fig2dev (Version 3.2.8) on Application.</t>
+          <t>The CVE affects the Fig2dev_project Fig2dev Application.</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The CVE affects the Arubanetworks Airwave (Version *) on Application.</t>
+          <t>The CVE affects the Arubanetworks Airwave Application.</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The CVE affects the Ezautomation Ez_plc_editor (Version *) on Application.</t>
+          <t>The CVE affects the Ezautomation Ez_plc_editor Application.</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The CVE affects the Microsoft Edge (Version -) on Application.</t>
+          <t>The CVE affects the Microsoft Edge Application.</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>The CVE affects the Debian Initramfs-tools (Version 0.92f) on Application.</t>
+          <t>The CVE affects the Debian Initramfs-tools Application.</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>The CVE affects the Microsoft Internet_explorer (Version 10) on Application.</t>
+          <t>The CVE affects the Microsoft Internet_explorer Application.</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>The CVE affects the Microsoft Internet_explorer (Version 7) on Application.</t>
+          <t>The CVE affects the Microsoft Internet_explorer Application.</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The CVE affects the Oracle Jre (Version 1.7.0) on Application.</t>
+          <t>The CVE affects the Oracle Jre Application.</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Iot_field_network_director (Version *) on Application.</t>
+          <t>The CVE affects the Cisco Iot_field_network_director Application.</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>The CVE affects the Intel Quartus_prime (Version *) on Application.</t>
+          <t>The CVE affects the Intel Quartus_prime Application.</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Adaptive_security_appliance_software (Version *) on Operating System.</t>
+          <t>The CVE affects the Cisco Adaptive_security_appliance_software Operating System.</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>The CVE affects the X.org X_server (Version *) on Application.</t>
+          <t>The CVE affects the X.org X_server Application.</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>The CVE affects the Ibm I2_analysts_notebook (Version 9.2.1) on Application.</t>
+          <t>The CVE affects the Ibm I2_analysts_notebook Application.</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>The CVE affects the Rubyonrails Actionview (Version *) on Application.</t>
+          <t>The CVE affects the Rubyonrails Actionview Application.</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>The CVE affects the Siemens Teamcenter_active_workspace (Version *) on Application.</t>
+          <t>The CVE affects the Siemens Teamcenter_active_workspace Application.</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>The CVE affects the Microseven Mym71080i-b_firmware (Version *) on Operating System.</t>
+          <t>The CVE affects the Microseven Mym71080i-b_firmware Operating System.</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>The CVE affects the Broadcom Symantec_messaging_gateway (Version *) on Application.</t>
+          <t>The CVE affects the Broadcom Symantec_messaging_gateway Application.</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>The CVE affects the Atlassian Jira (Version 3.12) on Application.</t>
+          <t>The CVE affects the Atlassian Jira Application.</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>The CVE affects the Magento Magento (Version *) on Application.</t>
+          <t>The CVE affects the Magento Magento Application.</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>The CVE affects the Le-yan_dental_management_system_project Le-yan_dental_management_system (Version 2.8.5) on Application.</t>
+          <t>The CVE affects the Le-yan_dental_management_system_project Le-yan_dental_management_system Application.</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>The CVE affects the Apple Macos (Version *) on Operating System.</t>
+          <t>The CVE affects the Apple Macos Operating System.</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>The CVE affects the Scratch-wiki Scratchsig (Version *) on Application.</t>
+          <t>The CVE affects the Scratch-wiki Scratchsig Application.</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>The CVE affects the Lexmark Printer_software_g2 (Version *) on Application.</t>
+          <t>The CVE affects the Lexmark Printer_software_g2 Application.</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>The CVE affects the Kubernetes Kubernetes (Version *) on Application.</t>
+          <t>The CVE affects the Kubernetes Kubernetes Application.</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>The CVE affects the Wordpress Wordpress (Version *) on Application.</t>
+          <t>The CVE affects the Wordpress Wordpress Application.</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>The CVE affects the Racom M\!dge_firmware (Version 4.4.40.105) on Operating System.</t>
+          <t>The CVE affects the Racom M\!dge_firmware Operating System.</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>The CVE affects the Microfocus Operations_agent (Version 12.0) on Application.</t>
+          <t>The CVE affects the Microfocus Operations_agent Application.</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>The CVE affects the Waycrate Swhkd (Version 1.1.5) on Application.</t>
+          <t>The CVE affects the Waycrate Swhkd Application.</t>
         </is>
       </c>
     </row>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>The CVE affects the Google Android (Version 11.0) on Operating System.</t>
+          <t>The CVE affects the Google Android Operating System.</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Jabber (Version 12.9\(0\)) on Application.</t>
+          <t>The CVE affects the Cisco Jabber Application.</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>The CVE affects the Asus Rt-ax56u_firmware (Version 3.0.0.4.386.45898) on Operating System.</t>
+          <t>The CVE affects the Asus Rt-ax56u_firmware Operating System.</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>The CVE affects the Onionshare Onionshare (Version *) on Application.</t>
+          <t>The CVE affects the Onionshare Onionshare Application.</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>The CVE affects the Rangerstudio Directus (Version *) on Application.</t>
+          <t>The CVE affects the Rangerstudio Directus Application.</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>The CVE affects the Microsoft Windows_10 (Version -) on Operating System.</t>
+          <t>The CVE affects the Microsoft Windows_10 Operating System.</t>
         </is>
       </c>
     </row>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>The CVE affects the Ibm Security_verify_information_queue (Version 1.0.6) on Application.</t>
+          <t>The CVE affects the Ibm Security_verify_information_queue Application.</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>The CVE affects the Sqlite Sqlite (Version *) on Application.</t>
+          <t>The CVE affects the Sqlite Sqlite Application.</t>
         </is>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>The CVE affects the Hilscher Ethernet\/ip_adapter_firmware (Version *) on Operating System.</t>
+          <t>The CVE affects the Hilscher Ethernet\/ip_adapter_firmware Operating System.</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>The CVE affects the Parallels Parallels_desktop (Version *) on Application.</t>
+          <t>The CVE affects the Parallels Parallels_desktop Application.</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>The CVE affects the Faststone Image_viewer (Version *) on Application.</t>
+          <t>The CVE affects the Faststone Image_viewer Application.</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>The CVE affects the Siemens Simatic_cp343-1 (Version -) on Hardware.</t>
+          <t>The CVE affects the Siemens Simatic_cp343-1 Hardware.</t>
         </is>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>The CVE affects the Oracle Weblogic_server (Version 10.3.6.0.0) on Application.</t>
+          <t>The CVE affects the Oracle Weblogic_server Application.</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Aironet_access_point_software (Version -) on Application.</t>
+          <t>The CVE affects the Cisco Aironet_access_point_software Application.</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>The CVE affects the Metagauss Profilegrid (Version *) on Application.</t>
+          <t>The CVE affects the Metagauss Profilegrid Application.</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>The CVE affects the Isc Bind (Version *) on Application.</t>
+          <t>The CVE affects the Isc Bind Application.</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Iox (Version *) on Application.</t>
+          <t>The CVE affects the Cisco Iox Application.</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>The CVE affects the Re-desk Re\ (Version desk) on Application.</t>
+          <t>The CVE affects the Re-desk Re\ Application.</t>
         </is>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>The CVE affects the Mesalabs Amegaview (Version *) on Application.</t>
+          <t>The CVE affects the Mesalabs Amegaview Application.</t>
         </is>
       </c>
     </row>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>The CVE affects the Microsoft Internet_explorer (Version 6) on Application.</t>
+          <t>The CVE affects the Microsoft Internet_explorer Application.</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>The CVE affects the Microsoft Windows_10 (Version 1903) on Operating System.</t>
+          <t>The CVE affects the Microsoft Windows_10 Operating System.</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>The CVE affects the Gimmal Sherpa_connector_service (Version 2020.2.20328.2050) on Application.</t>
+          <t>The CVE affects the Gimmal Sherpa_connector_service Application.</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>The CVE affects the Luca-app Luca (Version *) on Application.</t>
+          <t>The CVE affects the Luca-app Luca Application.</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Mds_9148s (Version -) on Hardware.</t>
+          <t>The CVE affects the Cisco Mds_9148s Hardware.</t>
         </is>
       </c>
     </row>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>The CVE affects the Pivotal_software Cloud_foundry_uaa (Version *) on Application.</t>
+          <t>The CVE affects the Pivotal_software Cloud_foundry_uaa Application.</t>
         </is>
       </c>
     </row>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>The CVE affects the Iptime C200 (Version -) on Hardware.</t>
+          <t>The CVE affects the Iptime C200 Hardware.</t>
         </is>
       </c>
     </row>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>The CVE affects the Cloudfoundry Bosh_backup_and_restore (Version *) on Application.</t>
+          <t>The CVE affects the Cloudfoundry Bosh_backup_and_restore Application.</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Iot_field_network_director (Version *) on Application.</t>
+          <t>The CVE affects the Cisco Iot_field_network_director Application.</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>The CVE affects the Microsoft Windows (Version -) on Operating System.</t>
+          <t>The CVE affects the Microsoft Windows Operating System.</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>The CVE affects the Nvidia Omniverse_launcher (Version *) on Application.</t>
+          <t>The CVE affects the Nvidia Omniverse_launcher Application.</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>The CVE affects the Solarwinds Orion_platform (Version 2020.2) on Application.</t>
+          <t>The CVE affects the Solarwinds Orion_platform Application.</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Ios (Version *) on Operating System.</t>
+          <t>The CVE affects the Cisco Ios Operating System.</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>The CVE affects the Google Android (Version 10.0) on Operating System.</t>
+          <t>The CVE affects the Google Android Operating System.</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>The CVE affects the Python Urllib3 (Version *) on Application.</t>
+          <t>The CVE affects the Python Urllib3 Application.</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>The CVE affects the Schneider-electric Clearscada (Version *) on Application.</t>
+          <t>The CVE affects the Schneider-electric Clearscada Application.</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>The CVE affects the Invoiceninja Invoice_ninja (Version *) on Application.</t>
+          <t>The CVE affects the Invoiceninja Invoice_ninja Application.</t>
         </is>
       </c>
     </row>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>The CVE affects the Sap Infrabox (Version *) on Application.</t>
+          <t>The CVE affects the Sap Infrabox Application.</t>
         </is>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>The CVE affects the Synology Diskstation_manager (Version *) on Application.</t>
+          <t>The CVE affects the Synology Diskstation_manager Application.</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>The CVE affects the Sap Businessobjects_business_intelligence (Version 420) on Application.</t>
+          <t>The CVE affects the Sap Businessobjects_business_intelligence Application.</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Smart_software_manager_on-prem (Version 8-202004) on Application.</t>
+          <t>The CVE affects the Cisco Smart_software_manager_on-prem Application.</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>The CVE affects the Siemens Sinec_nms (Version *) on Application.</t>
+          <t>The CVE affects the Siemens Sinec_nms Application.</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>The CVE affects the Apple Mac_os_x (Version *) on Operating System.</t>
+          <t>The CVE affects the Apple Mac_os_x Operating System.</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>The CVE affects the Wizplat Pd065 (Version -) on Hardware.</t>
+          <t>The CVE affects the Wizplat Pd065 Hardware.</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>The CVE affects the Chinamobile An_lianbao_wf-1 (Version -) on Hardware.</t>
+          <t>The CVE affects the Chinamobile An_lianbao_wf-1 Hardware.</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>The CVE affects the Podman_project Podman (Version *) on Application.</t>
+          <t>The CVE affects the Podman_project Podman Application.</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>The CVE affects the Wavlink Wl-wn530hg4_firmware (Version m30hg4.v5030.191116) on Operating System.</t>
+          <t>The CVE affects the Wavlink Wl-wn530hg4_firmware Operating System.</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>The CVE affects the Cloudfoundry Capi-release (Version *) on Application.</t>
+          <t>The CVE affects the Cloudfoundry Capi-release Application.</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>The CVE affects the Adobe Acrobat (Version *) on Application.</t>
+          <t>The CVE affects the Adobe Acrobat Application.</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>The CVE affects the Marvell Qconvergeconsole (Version *) on Application.</t>
+          <t>The CVE affects the Marvell Qconvergeconsole Application.</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>The CVE affects the Linux Linux_kernel (Version *) on Operating System.</t>
+          <t>The CVE affects the Linux Linux_kernel Operating System.</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>The CVE affects the Confluent Cp-ansible (Version 5.5.0) on Application.</t>
+          <t>The CVE affects the Confluent Cp-ansible Application.</t>
         </is>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>The CVE affects the Microsoft Windows_10_1507 (Version -) on Operating System.</t>
+          <t>The CVE affects the Microsoft Windows_10_1507 Operating System.</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Connected_mobile_experiences (Version 10.6.0) on Application.</t>
+          <t>The CVE affects the Cisco Connected_mobile_experiences Application.</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>The CVE affects the Glpi-project Glpi (Version 9.5.4) on Application.</t>
+          <t>The CVE affects the Glpi-project Glpi Application.</t>
         </is>
       </c>
     </row>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>The CVE affects the Solari Termtalk_server (Version 3.24.0.2) on Application.</t>
+          <t>The CVE affects the Solari Termtalk_server Application.</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>The CVE affects the Welaunch Wordpress_gdpr\&amp;ccpa (Version *) on Application.</t>
+          <t>The CVE affects the Welaunch Wordpress_gdpr\&amp;ccpa Application.</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>The CVE affects the Moxa Iks-g6824a_firmware (Version *) on Operating System.</t>
+          <t>The CVE affects the Moxa Iks-g6824a_firmware Operating System.</t>
         </is>
       </c>
     </row>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>The CVE affects the Djangoproject Django (Version *) on Application.</t>
+          <t>The CVE affects the Djangoproject Django Application.</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>The CVE affects the Ibm Spectrum_scale (Version *) on Application.</t>
+          <t>The CVE affects the Ibm Spectrum_scale Application.</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>The CVE affects the Apache Http_server (Version 2.4.49) on Application.</t>
+          <t>The CVE affects the Apache Http_server Application.</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>The CVE affects the Charactell Formstorm (Version 9.00.065) on Application.</t>
+          <t>The CVE affects the Charactell Formstorm Application.</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>The CVE affects the Joomla Joomla\! (Version 1.5.0) on Application.</t>
+          <t>The CVE affects the Joomla Joomla\! Application.</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>The CVE affects the Secom Dr.id_access_control (Version 3.3.2) on Application.</t>
+          <t>The CVE affects the Secom Dr.id_access_control Application.</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>The CVE affects the Sudo_project Sudo (Version *) on Application.</t>
+          <t>The CVE affects the Sudo_project Sudo Application.</t>
         </is>
       </c>
     </row>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>The CVE affects the Google Chrome (Version *) on Application.</t>
+          <t>The CVE affects the Google Chrome Application.</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Catalyst_sd-wan_manager (Version 20.3.1) on Application.</t>
+          <t>The CVE affects the Cisco Catalyst_sd-wan_manager Application.</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>The CVE affects the Microfocus Sitescope (Version 11.40) on Application.</t>
+          <t>The CVE affects the Microfocus Sitescope Application.</t>
         </is>
       </c>
     </row>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>The CVE affects the Qemu Qemu (Version *) on Application.</t>
+          <t>The CVE affects the Qemu Qemu Application.</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>The CVE affects the Occlum_project Occlum (Version *) on Application.</t>
+          <t>The CVE affects the Occlum_project Occlum Application.</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>The CVE affects the Hp Moonshot_provisioning_manager (Version 1.20) on Application.</t>
+          <t>The CVE affects the Hp Moonshot_provisioning_manager Application.</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>The CVE affects the Dell Emc_unity_operating_environment (Version *) on Application.</t>
+          <t>The CVE affects the Dell Emc_unity_operating_environment Application.</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>The CVE affects the Schneider-electric Scadapack_workbench (Version *) on Application.</t>
+          <t>The CVE affects the Schneider-electric Scadapack_workbench Application.</t>
         </is>
       </c>
     </row>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>The CVE affects the Coins-global Coins_construction_cloud (Version 11.12) on Application.</t>
+          <t>The CVE affects the Coins-global Coins_construction_cloud Application.</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>The CVE affects the Bentley Contextcapture_viewer (Version *) on Application.</t>
+          <t>The CVE affects the Bentley Contextcapture_viewer Application.</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>The CVE affects the Parallels Parallels_desktop (Version *) on Application.</t>
+          <t>The CVE affects the Parallels Parallels_desktop Application.</t>
         </is>
       </c>
     </row>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>The CVE affects the Redhat Openshift_builder (Version *) on Application.</t>
+          <t>The CVE affects the Redhat Openshift_builder Application.</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>The CVE affects the Vmware Workstation (Version *) on Application.</t>
+          <t>The CVE affects the Vmware Workstation Application.</t>
         </is>
       </c>
     </row>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>The CVE affects the Phpgurukul Teachers_record_management_system (Version 1.0) on Application.</t>
+          <t>The CVE affects the Phpgurukul Teachers_record_management_system Application.</t>
         </is>
       </c>
     </row>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>The CVE affects the Apache Log4j (Version *) on Application.</t>
+          <t>The CVE affects the Apache Log4j Application.</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>The CVE affects the Draeger Kappa_firmware (Version *) on Operating System.</t>
+          <t>The CVE affects the Draeger Kappa_firmware Operating System.</t>
         </is>
       </c>
     </row>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>The CVE affects the Zohocorp Manageengine_desktop_central (Version *) on Application.</t>
+          <t>The CVE affects the Zohocorp Manageengine_desktop_central Application.</t>
         </is>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>The CVE affects the Weechat Weechat (Version *) on Application.</t>
+          <t>The CVE affects the Weechat Weechat Application.</t>
         </is>
       </c>
     </row>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>The CVE affects the Rsa Archer (Version *) on Application.</t>
+          <t>The CVE affects the Rsa Archer Application.</t>
         </is>
       </c>
     </row>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>The CVE affects the Wireshark Wireshark (Version 3.4.0) on Application.</t>
+          <t>The CVE affects the Wireshark Wireshark Application.</t>
         </is>
       </c>
     </row>
@@ -4732,7 +4732,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Ip_phone_8865_firmware (Version 10.3\(1\)es14) on Operating System.</t>
+          <t>The CVE affects the Cisco Ip_phone_8865_firmware Operating System.</t>
         </is>
       </c>
     </row>
@@ -4770,7 +4770,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Ios (Version 15.2\(7\)e) on Operating System.</t>
+          <t>The CVE affects the Cisco Ios Operating System.</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>The CVE affects the Terra-master Tos (Version *) on Operating System.</t>
+          <t>The CVE affects the Terra-master Tos Operating System.</t>
         </is>
       </c>
     </row>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>The CVE affects the Mcafee Agent (Version *) on Application.</t>
+          <t>The CVE affects the Mcafee Agent Application.</t>
         </is>
       </c>
     </row>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>The CVE affects the Etherpad Etherpad (Version 1.8.13) on Application.</t>
+          <t>The CVE affects the Etherpad Etherpad Application.</t>
         </is>
       </c>
     </row>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>The CVE affects the Sap Netweaver_portal (Version 7.10) on Application.</t>
+          <t>The CVE affects the Sap Netweaver_portal Application.</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>The CVE affects the Opensuse Libsolv (Version *) on Application.</t>
+          <t>The CVE affects the Opensuse Libsolv Application.</t>
         </is>
       </c>
     </row>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>The CVE affects the Fibaro Home_center_2_firmware (Version *) on Operating System.</t>
+          <t>The CVE affects the Fibaro Home_center_2_firmware Operating System.</t>
         </is>
       </c>
     </row>
@@ -5032,7 +5032,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>The CVE affects the Mozilla Firefox (Version *) on Application.</t>
+          <t>The CVE affects the Mozilla Firefox Application.</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Ios_xe (Version *) on Operating System.</t>
+          <t>The CVE affects the Cisco Ios_xe Operating System.</t>
         </is>
       </c>
     </row>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>The CVE affects the Ricoh Sp_320dn_firmware (Version 1.06) on Operating System.</t>
+          <t>The CVE affects the Ricoh Sp_320dn_firmware Operating System.</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>The CVE affects the Linux Linux_kernel (Version *) on Operating System.</t>
+          <t>The CVE affects the Linux Linux_kernel Operating System.</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>The CVE affects the Koel Koel (Version *) on Application.</t>
+          <t>The CVE affects the Koel Koel Application.</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>The CVE affects the Ibm Aspera_application_platform_on_demand (Version *) on Application.</t>
+          <t>The CVE affects the Ibm Aspera_application_platform_on_demand Application.</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>The CVE affects the Custom_searchable_data_entry_system_project Custom_searchable_data_entry_system (Version *) on Application.</t>
+          <t>The CVE affects the Custom_searchable_data_entry_system_project Custom_searchable_data_entry_system Application.</t>
         </is>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>The CVE affects the Advantech Iview (Version *) on Application.</t>
+          <t>The CVE affects the Advantech Iview Application.</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Firepower_threat_defense (Version *) on Application.</t>
+          <t>The CVE affects the Cisco Firepower_threat_defense Application.</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>The CVE affects the Kaseya Virtual_system_administrator (Version *) on Application.</t>
+          <t>The CVE affects the Kaseya Virtual_system_administrator Application.</t>
         </is>
       </c>
     </row>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>The CVE affects the Dell Emc_appsync (Version *) on Application.</t>
+          <t>The CVE affects the Dell Emc_appsync Application.</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>The CVE affects the Schokokeks Freewvs (Version *) on Application.</t>
+          <t>The CVE affects the Schokokeks Freewvs Application.</t>
         </is>
       </c>
     </row>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>The CVE affects the Emerson Deltav (Version 13.3.1) on Application.</t>
+          <t>The CVE affects the Emerson Deltav Application.</t>
         </is>
       </c>
     </row>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>The CVE affects the Rsa Archer (Version *) on Application.</t>
+          <t>The CVE affects the Rsa Archer Application.</t>
         </is>
       </c>
     </row>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>The CVE affects the Socialcodia Social_codia_sms (Version 1.0) on Application.</t>
+          <t>The CVE affects the Socialcodia Social_codia_sms Application.</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>The CVE affects the Element Desktop (Version *) on Application.</t>
+          <t>The CVE affects the Element Desktop Application.</t>
         </is>
       </c>
     </row>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Nx-os (Version *) on Operating System.</t>
+          <t>The CVE affects the Cisco Nx-os Operating System.</t>
         </is>
       </c>
     </row>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>The CVE affects the Library_system_project Library_system (Version 1.0) on Application.</t>
+          <t>The CVE affects the Library_system_project Library_system Application.</t>
         </is>
       </c>
     </row>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>The CVE affects the Dell Bsafe_crypto-c-micro-edition (Version *) on Application.</t>
+          <t>The CVE affects the Dell Bsafe_crypto-c-micro-edition Application.</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Ios (Version 15.8\(3\)m2a) on Operating System.</t>
+          <t>The CVE affects the Cisco Ios Operating System.</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>The CVE affects the Hcltech Hcl_inotes (Version 10.0.1) on Application.</t>
+          <t>The CVE affects the Hcltech Hcl_inotes Application.</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>The CVE affects the Paloaltonetworks Cortex_xsoar (Version 6.1.0) on Application.</t>
+          <t>The CVE affects the Paloaltonetworks Cortex_xsoar Application.</t>
         </is>
       </c>
     </row>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>The CVE affects the Baofeng Storm (Version *) on Application.</t>
+          <t>The CVE affects the Baofeng Storm Application.</t>
         </is>
       </c>
     </row>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>The CVE affects the Dell Emc_openmanage_server_administrator (Version 9.1) on Application.</t>
+          <t>The CVE affects the Dell Emc_openmanage_server_administrator Application.</t>
         </is>
       </c>
     </row>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>The CVE affects the Microsoft Internet_explorer (Version 7) on Application.</t>
+          <t>The CVE affects the Microsoft Internet_explorer Application.</t>
         </is>
       </c>
     </row>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>The CVE affects the Prestashop Prestashop (Version *) on Application.</t>
+          <t>The CVE affects the Prestashop Prestashop Application.</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>The CVE affects the Paloaltonetworks Pan-os (Version *) on Operating System.</t>
+          <t>The CVE affects the Paloaltonetworks Pan-os Operating System.</t>
         </is>
       </c>
     </row>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>The CVE affects the Linux Linux_kernel (Version *) on Operating System.</t>
+          <t>The CVE affects the Linux Linux_kernel Operating System.</t>
         </is>
       </c>
     </row>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Security_manager (Version *) on Application.</t>
+          <t>The CVE affects the Cisco Security_manager Application.</t>
         </is>
       </c>
     </row>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>The CVE affects the Microsoft Server_message_block (Version 1.0) on Application.</t>
+          <t>The CVE affects the Microsoft Server_message_block Application.</t>
         </is>
       </c>
     </row>
@@ -6150,7 +6150,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>The CVE affects the Istio-operator_project Istio-operator (Version *) on Application.</t>
+          <t>The CVE affects the Istio-operator_project Istio-operator Application.</t>
         </is>
       </c>
     </row>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>The CVE affects the Progress Moveit_transfer (Version *) on Application.</t>
+          <t>The CVE affects the Progress Moveit_transfer Application.</t>
         </is>
       </c>
     </row>
@@ -6224,7 +6224,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>The CVE affects the Linux Linux_kernel (Version *) on Operating System.</t>
+          <t>The CVE affects the Linux Linux_kernel Operating System.</t>
         </is>
       </c>
     </row>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>The CVE affects the Paloaltonetworks Cortex_xdr_agent (Version *) on Application.</t>
+          <t>The CVE affects the Paloaltonetworks Cortex_xdr_agent Application.</t>
         </is>
       </c>
     </row>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>The CVE affects the Moinmo Moinmoin (Version *) on Application.</t>
+          <t>The CVE affects the Moinmo Moinmoin Application.</t>
         </is>
       </c>
     </row>
@@ -6334,7 +6334,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>The CVE affects the Fresenius-kabi Agilia_connect_firmware (Version *) on Operating System.</t>
+          <t>The CVE affects the Fresenius-kabi Agilia_connect_firmware Operating System.</t>
         </is>
       </c>
     </row>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>The CVE affects the Reolink Rlc-410w_firmware (Version 3.0.0.136_20121102) on Operating System.</t>
+          <t>The CVE affects the Reolink Rlc-410w_firmware Operating System.</t>
         </is>
       </c>
     </row>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>The CVE affects the Microsoft 365_apps (Version -) on Application.</t>
+          <t>The CVE affects the Microsoft 365_apps Application.</t>
         </is>
       </c>
     </row>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>The CVE affects the Phpgurukul Zoo_management_system (Version 1.0) on Application.</t>
+          <t>The CVE affects the Phpgurukul Zoo_management_system Application.</t>
         </is>
       </c>
     </row>
@@ -6483,7 +6483,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>The CVE affects the Microsoft Windows (Version -) on Operating System.</t>
+          <t>The CVE affects the Microsoft Windows Operating System.</t>
         </is>
       </c>
     </row>
@@ -6520,7 +6520,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>The CVE affects the Musical_world_project Musical_world (Version 1.0) on Application.</t>
+          <t>The CVE affects the Musical_world_project Musical_world Application.</t>
         </is>
       </c>
     </row>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>The CVE affects the Advantech Webaccess (Version *) on Application.</t>
+          <t>The CVE affects the Advantech Webaccess Application.</t>
         </is>
       </c>
     </row>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>The CVE affects the Marvell Qconvergeconsole (Version *) on Application.</t>
+          <t>The CVE affects the Marvell Qconvergeconsole Application.</t>
         </is>
       </c>
     </row>
@@ -6632,7 +6632,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>The CVE affects the Thinkphp Thinkphp (Version *) on Application.</t>
+          <t>The CVE affects the Thinkphp Thinkphp Application.</t>
         </is>
       </c>
     </row>
@@ -6670,7 +6670,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>The CVE affects the Microsoft Windows_10_1507 (Version *) on Operating System.</t>
+          <t>The CVE affects the Microsoft Windows_10_1507 Operating System.</t>
         </is>
       </c>
     </row>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>The CVE affects the Trendmicro Deep_security_agent (Version *) on Application.</t>
+          <t>The CVE affects the Trendmicro Deep_security_agent Application.</t>
         </is>
       </c>
     </row>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>The CVE affects the Linux Linux_kernel (Version *) on Operating System.</t>
+          <t>The CVE affects the Linux Linux_kernel Operating System.</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>The CVE affects the Microsoft Windows_7 (Version -) on Operating System.</t>
+          <t>The CVE affects the Microsoft Windows_7 Operating System.</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>The CVE affects the Theforeman Foreman (Version *) on Application.</t>
+          <t>The CVE affects the Theforeman Foreman Application.</t>
         </is>
       </c>
     </row>
@@ -6853,7 +6853,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>The CVE affects the Nvidia Jetson_linux (Version *) on Operating System.</t>
+          <t>The CVE affects the Nvidia Jetson_linux Operating System.</t>
         </is>
       </c>
     </row>
@@ -6891,7 +6891,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>The CVE affects the Sonicwall Sonicos (Version *) on Operating System.</t>
+          <t>The CVE affects the Sonicwall Sonicos Operating System.</t>
         </is>
       </c>
     </row>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>The CVE affects the Varnish-cache Varnish-modules (Version *) on Application.</t>
+          <t>The CVE affects the Varnish-cache Varnish-modules Application.</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>The CVE affects the Bbraun Spacecom2 (Version *) on Operating System.</t>
+          <t>The CVE affects the Bbraun Spacecom2 Operating System.</t>
         </is>
       </c>
     </row>
@@ -7003,7 +7003,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>The CVE affects the Hp Color_laser_150_4zb94a (Version -) on Hardware.</t>
+          <t>The CVE affects the Hp Color_laser_150_4zb94a Hardware.</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>The CVE affects the Phoenixcontact Config\+ (Version *) on Application.</t>
+          <t>The CVE affects the Phoenixcontact Config\+ Application.</t>
         </is>
       </c>
     </row>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>The CVE affects the Sylius Syliusresourcebundle (Version *) on Application.</t>
+          <t>The CVE affects the Sylius Syliusresourcebundle Application.</t>
         </is>
       </c>
     </row>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>The CVE affects the Hcltechsw Hcl_client_application_access (Version 9.0) on Application.</t>
+          <t>The CVE affects the Hcltechsw Hcl_client_application_access Application.</t>
         </is>
       </c>
     </row>
@@ -7154,7 +7154,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>The CVE affects the Google Android (Version 10.0) on Operating System.</t>
+          <t>The CVE affects the Google Android Operating System.</t>
         </is>
       </c>
     </row>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Telepresence_codec (Version *) on Application.</t>
+          <t>The CVE affects the Cisco Telepresence_codec Application.</t>
         </is>
       </c>
     </row>
@@ -7230,7 +7230,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>The CVE affects the Rtautomation 499es_ethernet\/ip_adaptor (Version -) on Hardware.</t>
+          <t>The CVE affects the Rtautomation 499es_ethernet\/ip_adaptor Hardware.</t>
         </is>
       </c>
     </row>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>The CVE affects the Micron Ddr4_sdram (Version -) on Hardware.</t>
+          <t>The CVE affects the Micron Ddr4_sdram Hardware.</t>
         </is>
       </c>
     </row>
@@ -7302,7 +7302,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>The CVE affects the Beckhoff Ipc_diagnostics (Version *) on Application.</t>
+          <t>The CVE affects the Beckhoff Ipc_diagnostics Application.</t>
         </is>
       </c>
     </row>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>The CVE affects the Apache Druid (Version *) on Application.</t>
+          <t>The CVE affects the Apache Druid Application.</t>
         </is>
       </c>
     </row>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Webex_network_recording_player (Version -) on Application.</t>
+          <t>The CVE affects the Cisco Webex_network_recording_player Application.</t>
         </is>
       </c>
     </row>
@@ -7414,7 +7414,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>The CVE affects the Sap Netweaver_enterprise_portal (Version 7.30) on Application.</t>
+          <t>The CVE affects the Sap Netweaver_enterprise_portal Application.</t>
         </is>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>The CVE affects the Jdom Jdom (Version *) on Application.</t>
+          <t>The CVE affects the Jdom Jdom Application.</t>
         </is>
       </c>
     </row>
@@ -7488,7 +7488,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>The CVE affects the Troglobit Uftpd (Version *) on Application.</t>
+          <t>The CVE affects the Troglobit Uftpd Application.</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>The CVE affects the Siemens Siprotec_5_with_cpu_variant_cp050 (Version *) on Operating System.</t>
+          <t>The CVE affects the Siemens Siprotec_5_with_cpu_variant_cp050 Operating System.</t>
         </is>
       </c>
     </row>
@@ -7562,7 +7562,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>The CVE affects the Vmware Cloud_foundation (Version *) on Application.</t>
+          <t>The CVE affects the Vmware Cloud_foundation Application.</t>
         </is>
       </c>
     </row>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>The CVE affects the Microsoft Windows_10 (Version 1709) on Operating System.</t>
+          <t>The CVE affects the Microsoft Windows_10 Operating System.</t>
         </is>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Ios_xe (Version 16.5.1) on Operating System.</t>
+          <t>The CVE affects the Cisco Ios_xe Operating System.</t>
         </is>
       </c>
     </row>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>The CVE affects the Prestashop Prestashop (Version *) on Application.</t>
+          <t>The CVE affects the Prestashop Prestashop Application.</t>
         </is>
       </c>
     </row>
@@ -7710,7 +7710,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Sg200-50_firmware (Version -) on Operating System.</t>
+          <t>The CVE affects the Cisco Sg200-50_firmware Operating System.</t>
         </is>
       </c>
     </row>
@@ -7748,7 +7748,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>The CVE affects the Linux Linux_kernel (Version -) on Operating System.</t>
+          <t>The CVE affects the Linux Linux_kernel Operating System.</t>
         </is>
       </c>
     </row>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>The CVE affects the Jenkins Publish_over_ssh (Version *) on Application.</t>
+          <t>The CVE affects the Jenkins Publish_over_ssh Application.</t>
         </is>
       </c>
     </row>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>The CVE affects the Vmware Vcenter_server (Version 6.5) on Application.</t>
+          <t>The CVE affects the Vmware Vcenter_server Application.</t>
         </is>
       </c>
     </row>
@@ -7859,7 +7859,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>The CVE affects the Autodesk Licensing_services (Version 9.0.1.1462.100) on Application.</t>
+          <t>The CVE affects the Autodesk Licensing_services Application.</t>
         </is>
       </c>
     </row>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>The CVE affects the Redhat 3scale (Version *) on Application.</t>
+          <t>The CVE affects the Redhat 3scale Application.</t>
         </is>
       </c>
     </row>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>The CVE affects the Zoom Meetings (Version *) on Application.</t>
+          <t>The CVE affects the Zoom Meetings Application.</t>
         </is>
       </c>
     </row>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>The CVE affects the Sismics Teedy (Version *) on Application.</t>
+          <t>The CVE affects the Sismics Teedy Application.</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>The CVE affects the Dell Chengming_3967 (Version -) on Hardware.</t>
+          <t>The CVE affects the Dell Chengming_3967 Hardware.</t>
         </is>
       </c>
     </row>
@@ -8045,7 +8045,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>The CVE affects the Solarwinds Orion_platform (Version 2019.4) on Application.</t>
+          <t>The CVE affects the Solarwinds Orion_platform Application.</t>
         </is>
       </c>
     </row>
@@ -8083,7 +8083,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>The CVE affects the Dell Idrac7_firmware (Version *) on Operating System.</t>
+          <t>The CVE affects the Dell Idrac7_firmware Operating System.</t>
         </is>
       </c>
     </row>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>The CVE affects the Kubernetes Cri-o (Version *) on Application.</t>
+          <t>The CVE affects the Kubernetes Cri-o Application.</t>
         </is>
       </c>
     </row>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>The CVE affects the Oracle Communications_operations_monitor (Version 3.4) on Application.</t>
+          <t>The CVE affects the Oracle Communications_operations_monitor Application.</t>
         </is>
       </c>
     </row>
@@ -8194,7 +8194,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>The CVE affects the Lua Lua (Version 5.4.3) on Application.</t>
+          <t>The CVE affects the Lua Lua Application.</t>
         </is>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>The CVE affects the Gnu Bash (Version *) on Application.</t>
+          <t>The CVE affects the Gnu Bash Application.</t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Data_center_network_manager (Version *) on Application.</t>
+          <t>The CVE affects the Cisco Data_center_network_manager Application.</t>
         </is>
       </c>
     </row>
@@ -8306,7 +8306,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>The CVE affects the Bbraun Spacecom2 (Version *) on Operating System.</t>
+          <t>The CVE affects the Bbraun Spacecom2 Operating System.</t>
         </is>
       </c>
     </row>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>The CVE affects the Raspap Raspap (Version *) on Application.</t>
+          <t>The CVE affects the Raspap Raspap Application.</t>
         </is>
       </c>
     </row>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>The CVE affects the Rockwellautomation Arena_simulation_software (Version *) on Application.</t>
+          <t>The CVE affects the Rockwellautomation Arena_simulation_software Application.</t>
         </is>
       </c>
     </row>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>The CVE affects the Paloaltonetworks Globalprotect (Version *) on Application.</t>
+          <t>The CVE affects the Paloaltonetworks Globalprotect Application.</t>
         </is>
       </c>
     </row>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>The CVE affects the Pancakeapp Pancake (Version *) on Application.</t>
+          <t>The CVE affects the Pancakeapp Pancake Application.</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>The CVE affects the Plone Plone (Version *) on Application.</t>
+          <t>The CVE affects the Plone Plone Application.</t>
         </is>
       </c>
     </row>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>The CVE affects the Imagemagick Imagemagick (Version *) on Application.</t>
+          <t>The CVE affects the Imagemagick Imagemagick Application.</t>
         </is>
       </c>
     </row>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Unified_communications_manager (Version 10.5\(2.10000.5\)) on Application.</t>
+          <t>The CVE affects the Cisco Unified_communications_manager Application.</t>
         </is>
       </c>
     </row>
@@ -8606,7 +8606,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>The CVE affects the Avahi Avahi (Version *) on Application.</t>
+          <t>The CVE affects the Avahi Avahi Application.</t>
         </is>
       </c>
     </row>
@@ -8644,7 +8644,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>The CVE affects the Artifex Ghostpcl (Version 9.55.0) on Application.</t>
+          <t>The CVE affects the Artifex Ghostpcl Application.</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>The CVE affects the Microsoft Windows_10 (Version 20h2) on Operating System.</t>
+          <t>The CVE affects the Microsoft Windows_10 Operating System.</t>
         </is>
       </c>
     </row>
@@ -8719,7 +8719,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>The CVE affects the Adobe Acrobat (Version *) on Application.</t>
+          <t>The CVE affects the Adobe Acrobat Application.</t>
         </is>
       </c>
     </row>
@@ -8756,7 +8756,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>The CVE affects the Redhat Enterprise_linux_desktop (Version 5.0) on Operating System.</t>
+          <t>The CVE affects the Redhat Enterprise_linux_desktop Operating System.</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>The CVE affects the Adobe Coldfusion (Version 11.0) on Application.</t>
+          <t>The CVE affects the Adobe Coldfusion Application.</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>The CVE affects the Advantech Webaccess (Version *) on Application.</t>
+          <t>The CVE affects the Advantech Webaccess Application.</t>
         </is>
       </c>
     </row>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>The CVE affects the Broadcom Netmaster_file_transfer_management (Version 12.2) on Application.</t>
+          <t>The CVE affects the Broadcom Netmaster_file_transfer_management Application.</t>
         </is>
       </c>
     </row>
@@ -8906,7 +8906,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>The CVE affects the Circutor Sge-plc1000 (Version -) on Hardware.</t>
+          <t>The CVE affects the Circutor Sge-plc1000 Hardware.</t>
         </is>
       </c>
     </row>
@@ -8943,7 +8943,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>The CVE affects the Online_reviewer_system_project Online_reviewer_system (Version 1.0) on Application.</t>
+          <t>The CVE affects the Online_reviewer_system_project Online_reviewer_system Application.</t>
         </is>
       </c>
     </row>
@@ -8979,7 +8979,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>The CVE affects the Wordpress Wordpress (Version *) on Application.</t>
+          <t>The CVE affects the Wordpress Wordpress Application.</t>
         </is>
       </c>
     </row>
@@ -9014,7 +9014,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>The CVE affects the Linux Linux_kernel (Version *) on Operating System.</t>
+          <t>The CVE affects the Linux Linux_kernel Operating System.</t>
         </is>
       </c>
     </row>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>The CVE affects the Wordpress Wordpress (Version *) on Application.</t>
+          <t>The CVE affects the Wordpress Wordpress Application.</t>
         </is>
       </c>
     </row>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>The CVE affects the Linux Linux_kernel (Version *) on Operating System.</t>
+          <t>The CVE affects the Linux Linux_kernel Operating System.</t>
         </is>
       </c>
     </row>
@@ -9124,7 +9124,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>The CVE affects the Vaadin Flow-server (Version *) on Application.</t>
+          <t>The CVE affects the Vaadin Flow-server Application.</t>
         </is>
       </c>
     </row>
@@ -9160,7 +9160,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>The CVE affects the F-secure Atlant (Version *) on Application.</t>
+          <t>The CVE affects the F-secure Atlant Application.</t>
         </is>
       </c>
     </row>
@@ -9197,7 +9197,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>The CVE affects the Reiner-sct Timecard (Version 6.05.07) on Application.</t>
+          <t>The CVE affects the Reiner-sct Timecard Application.</t>
         </is>
       </c>
     </row>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>The CVE affects the Sap Dmis (Version 710) on Application.</t>
+          <t>The CVE affects the Sap Dmis Application.</t>
         </is>
       </c>
     </row>
@@ -9272,7 +9272,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>The CVE affects the Insyde Insydeh2o (Version *) on Application.</t>
+          <t>The CVE affects the Insyde Insydeh2o Application.</t>
         </is>
       </c>
     </row>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>The CVE affects the Sap Business_one (Version 10.0) on Application.</t>
+          <t>The CVE affects the Sap Business_one Application.</t>
         </is>
       </c>
     </row>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>The CVE affects the Sap Netweaver_knowledge_management (Version 7.30) on Application.</t>
+          <t>The CVE affects the Sap Netweaver_knowledge_management Application.</t>
         </is>
       </c>
     </row>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>The CVE affects the Kyma-project Kyma (Version *) on Application.</t>
+          <t>The CVE affects the Kyma-project Kyma Application.</t>
         </is>
       </c>
     </row>
@@ -9423,7 +9423,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>The CVE affects the Circutor Sge-plc1000 (Version -) on Hardware.</t>
+          <t>The CVE affects the Circutor Sge-plc1000 Hardware.</t>
         </is>
       </c>
     </row>
@@ -9460,7 +9460,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>The CVE affects the Systemd_project Systemd (Version *) on Application.</t>
+          <t>The CVE affects the Systemd_project Systemd Application.</t>
         </is>
       </c>
     </row>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>The CVE affects the Buffercode Random_banner (Version *) on Application.</t>
+          <t>The CVE affects the Buffercode Random_banner Application.</t>
         </is>
       </c>
     </row>
@@ -9535,7 +9535,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>The CVE affects the Sap Enterprise_threat_detection (Version 2.0) on Application.</t>
+          <t>The CVE affects the Sap Enterprise_threat_detection Application.</t>
         </is>
       </c>
     </row>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>The CVE affects the Clamav Clamav (Version *) on Application.</t>
+          <t>The CVE affects the Clamav Clamav Application.</t>
         </is>
       </c>
     </row>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>The CVE affects the Le-yan_dental_management_system_project Le-yan_dental_management_system (Version 2.8.5) on Application.</t>
+          <t>The CVE affects the Le-yan_dental_management_system_project Le-yan_dental_management_system Application.</t>
         </is>
       </c>
     </row>
@@ -9648,7 +9648,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>The CVE affects the Jenkins Publish_over_ssh (Version *) on Application.</t>
+          <t>The CVE affects the Jenkins Publish_over_ssh Application.</t>
         </is>
       </c>
     </row>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>The CVE affects the Mcafee Techcheck (Version *) on Application.</t>
+          <t>The CVE affects the Mcafee Techcheck Application.</t>
         </is>
       </c>
     </row>
@@ -9723,7 +9723,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>The CVE affects the Typelevel Jawn (Version *) on Application.</t>
+          <t>The CVE affects the Typelevel Jawn Application.</t>
         </is>
       </c>
     </row>
@@ -9761,7 +9761,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>The CVE affects the Daybydaycrm Daybyday_crm (Version *) on Application.</t>
+          <t>The CVE affects the Daybydaycrm Daybyday_crm Application.</t>
         </is>
       </c>
     </row>
@@ -9799,7 +9799,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>The CVE affects the Daybydaycrm Daybyday_crm (Version 2.2.0) on Application.</t>
+          <t>The CVE affects the Daybydaycrm Daybyday_crm Application.</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>The CVE affects the Useful_simple_open-source_cms_project Useful_simple_open-source_cms (Version *) on Application.</t>
+          <t>The CVE affects the Useful_simple_open-source_cms_project Useful_simple_open-source_cms Application.</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9873,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>The CVE affects the Nomachine Nomachine (Version *) on Application.</t>
+          <t>The CVE affects the Nomachine Nomachine Application.</t>
         </is>
       </c>
     </row>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>The CVE affects the Gnome Gupnp (Version *) on Application.</t>
+          <t>The CVE affects the Gnome Gupnp Application.</t>
         </is>
       </c>
     </row>
@@ -9946,7 +9946,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>The CVE affects the Echobh Sharecare (Version 8.15.5) on Application.</t>
+          <t>The CVE affects the Echobh Sharecare Application.</t>
         </is>
       </c>
     </row>
@@ -9983,7 +9983,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>The CVE affects the Iconics Genesis64 (Version *) on Application.</t>
+          <t>The CVE affects the Iconics Genesis64 Application.</t>
         </is>
       </c>
     </row>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>The CVE affects the Dell Emc_appsync (Version *) on Application.</t>
+          <t>The CVE affects the Dell Emc_appsync Application.</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>The CVE affects the Juniper Contrail_service_orchestration (Version *) on Application.</t>
+          <t>The CVE affects the Juniper Contrail_service_orchestration Application.</t>
         </is>
       </c>
     </row>
@@ -10095,7 +10095,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>The CVE affects the Juniper Junos (Version *) on Operating System.</t>
+          <t>The CVE affects the Juniper Junos Operating System.</t>
         </is>
       </c>
     </row>
@@ -10132,7 +10132,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>The CVE affects the Minecraft Minecraft (Version -) on Application.</t>
+          <t>The CVE affects the Minecraft Minecraft Application.</t>
         </is>
       </c>
     </row>
@@ -10169,7 +10169,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>The CVE affects the Ansi_up_project Ansi_up (Version *) on Application.</t>
+          <t>The CVE affects the Ansi_up_project Ansi_up Application.</t>
         </is>
       </c>
     </row>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>The CVE affects the Foxitsoftware Foxit_reader (Version *) on Application.</t>
+          <t>The CVE affects the Foxitsoftware Foxit_reader Application.</t>
         </is>
       </c>
     </row>
@@ -10242,7 +10242,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>The CVE affects the Moxa Mgate_mb3180_firmware (Version 2.1) on Operating System.</t>
+          <t>The CVE affects the Moxa Mgate_mb3180_firmware Operating System.</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>The CVE affects the Bdew Bdlib (Version *) on Application.</t>
+          <t>The CVE affects the Bdew Bdlib Application.</t>
         </is>
       </c>
     </row>
@@ -10316,7 +10316,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>The CVE affects the Gespage Gespage (Version *) on Application.</t>
+          <t>The CVE affects the Gespage Gespage Application.</t>
         </is>
       </c>
     </row>
@@ -10353,7 +10353,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>The CVE affects the Websockets_project Websockets (Version *) on Application.</t>
+          <t>The CVE affects the Websockets_project Websockets Application.</t>
         </is>
       </c>
     </row>
@@ -10390,7 +10390,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>The CVE affects the Microsoft Clarity (Version 0.3) on Application.</t>
+          <t>The CVE affects the Microsoft Clarity Application.</t>
         </is>
       </c>
     </row>
@@ -10427,7 +10427,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>The CVE affects the Opensuse Libsolv (Version *) on Application.</t>
+          <t>The CVE affects the Opensuse Libsolv Application.</t>
         </is>
       </c>
     </row>
@@ -10464,7 +10464,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>The CVE affects the Chinamobile An_lianbao_wf-1_firmware (Version 1.0.1) on Operating System.</t>
+          <t>The CVE affects the Chinamobile An_lianbao_wf-1_firmware Operating System.</t>
         </is>
       </c>
     </row>
@@ -10502,7 +10502,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>The CVE affects the Siemens Sinema_remote_connect_server (Version *) on Application.</t>
+          <t>The CVE affects the Siemens Sinema_remote_connect_server Application.</t>
         </is>
       </c>
     </row>
@@ -10539,7 +10539,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>The CVE affects the Google Tensorflow (Version *) on Application.</t>
+          <t>The CVE affects the Google Tensorflow Application.</t>
         </is>
       </c>
     </row>
@@ -10577,7 +10577,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>The CVE affects the Grafana Grafana (Version *) on Application.</t>
+          <t>The CVE affects the Grafana Grafana Application.</t>
         </is>
       </c>
     </row>
@@ -10614,7 +10614,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>The CVE affects the Phpmyadmin Phpmyadmin (Version *) on Application.</t>
+          <t>The CVE affects the Phpmyadmin Phpmyadmin Application.</t>
         </is>
       </c>
     </row>
@@ -10652,7 +10652,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>The CVE affects the Paloaltonetworks Pan-os (Version *) on Operating System.</t>
+          <t>The CVE affects the Paloaltonetworks Pan-os Operating System.</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>The CVE affects the Google Android (Version 8.0) on Operating System.</t>
+          <t>The CVE affects the Google Android Operating System.</t>
         </is>
       </c>
     </row>
@@ -10727,7 +10727,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Sd-wan (Version *) on Application.</t>
+          <t>The CVE affects the Cisco Sd-wan Application.</t>
         </is>
       </c>
     </row>
@@ -10763,7 +10763,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>The CVE affects the Ibm Data_risk_manager (Version 2.0.1) on Application.</t>
+          <t>The CVE affects the Ibm Data_risk_manager Application.</t>
         </is>
       </c>
     </row>
@@ -10800,7 +10800,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>The CVE affects the Timelybills Timelybills (Version *) on Application.</t>
+          <t>The CVE affects the Timelybills Timelybills Application.</t>
         </is>
       </c>
     </row>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>The CVE affects the Nvidia Virtual_gpu_manager (Version *) on Application.</t>
+          <t>The CVE affects the Nvidia Virtual_gpu_manager Application.</t>
         </is>
       </c>
     </row>
@@ -10874,7 +10874,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Ios_xr (Version *) on Operating System.</t>
+          <t>The CVE affects the Cisco Ios_xr Operating System.</t>
         </is>
       </c>
     </row>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>The CVE affects the Zohocorp Manageengine_opmanager (Version *) on Application.</t>
+          <t>The CVE affects the Zohocorp Manageengine_opmanager Application.</t>
         </is>
       </c>
     </row>
@@ -10948,7 +10948,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>The CVE affects the Linux Linux_kernel (Version *) on Operating System.</t>
+          <t>The CVE affects the Linux Linux_kernel Operating System.</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10986,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>The CVE affects the Adobe Captivate (Version *) on Application.</t>
+          <t>The CVE affects the Adobe Captivate Application.</t>
         </is>
       </c>
     </row>
@@ -11024,7 +11024,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>The CVE affects the Hgiga Msr45_isherlock-antispam (Version *) on Application.</t>
+          <t>The CVE affects the Hgiga Msr45_isherlock-antispam Application.</t>
         </is>
       </c>
     </row>
@@ -11062,7 +11062,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>The CVE affects the Nextcloud Nextcloud_server (Version *) on Application.</t>
+          <t>The CVE affects the Nextcloud Nextcloud_server Application.</t>
         </is>
       </c>
     </row>
@@ -11100,7 +11100,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>The CVE affects the Eaton Intelligent_power_manager (Version *) on Application.</t>
+          <t>The CVE affects the Eaton Intelligent_power_manager Application.</t>
         </is>
       </c>
     </row>
@@ -11138,7 +11138,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>The CVE affects the Google Android (Version 8.1) on Operating System.</t>
+          <t>The CVE affects the Google Android Operating System.</t>
         </is>
       </c>
     </row>
@@ -11176,7 +11176,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>The CVE affects the Apache Myfaces (Version *) on Application.</t>
+          <t>The CVE affects the Apache Myfaces Application.</t>
         </is>
       </c>
     </row>
@@ -11213,7 +11213,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>The CVE affects the Afterlogic Aurora (Version *) on Application.</t>
+          <t>The CVE affects the Afterlogic Aurora Application.</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>The CVE affects the Netapp Cloud_manager (Version *) on Application.</t>
+          <t>The CVE affects the Netapp Cloud_manager Application.</t>
         </is>
       </c>
     </row>
@@ -11286,7 +11286,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>The CVE affects the Checkbox Survey (Version *) on Application.</t>
+          <t>The CVE affects the Checkbox Survey Application.</t>
         </is>
       </c>
     </row>
@@ -11324,7 +11324,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>The CVE affects the Ge Mu320e (Version -) on Hardware.</t>
+          <t>The CVE affects the Ge Mu320e Hardware.</t>
         </is>
       </c>
     </row>
@@ -11361,7 +11361,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>The CVE affects the Ibm I2_analysts_notebook (Version 9.2.1) on Application.</t>
+          <t>The CVE affects the Ibm I2_analysts_notebook Application.</t>
         </is>
       </c>
     </row>
@@ -11399,7 +11399,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Nexus_data_broker (Version *) on Application.</t>
+          <t>The CVE affects the Cisco Nexus_data_broker Application.</t>
         </is>
       </c>
     </row>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco N9k-c9316d-gx (Version -) on Hardware.</t>
+          <t>The CVE affects the Cisco N9k-c9316d-gx Hardware.</t>
         </is>
       </c>
     </row>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>The CVE affects the Sonicwall Email_security (Version *) on Application.</t>
+          <t>The CVE affects the Sonicwall Email_security Application.</t>
         </is>
       </c>
     </row>
@@ -11513,7 +11513,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>The CVE affects the Sonicwall Global_management_system (Version 9.3) on Application.</t>
+          <t>The CVE affects the Sonicwall Global_management_system Application.</t>
         </is>
       </c>
     </row>
@@ -11550,7 +11550,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>The CVE affects the Wireshark Wireshark (Version *) on Application.</t>
+          <t>The CVE affects the Wireshark Wireshark Application.</t>
         </is>
       </c>
     </row>
@@ -11587,7 +11587,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>The CVE affects the Parallels Remote_application_server (Version 18.0) on Application.</t>
+          <t>The CVE affects the Parallels Remote_application_server Application.</t>
         </is>
       </c>
     </row>
@@ -11625,7 +11625,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>The CVE affects the Grandstream Ucm6202_firmware (Version *) on Operating System.</t>
+          <t>The CVE affects the Grandstream Ucm6202_firmware Operating System.</t>
         </is>
       </c>
     </row>
@@ -11662,7 +11662,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>The CVE affects the Google Chrome (Version *) on Application.</t>
+          <t>The CVE affects the Google Chrome Application.</t>
         </is>
       </c>
     </row>
@@ -11700,7 +11700,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>The CVE affects the Cisco Anyconnect_secure_mobility_client (Version *) on Application.</t>
+          <t>The CVE affects the Cisco Anyconnect_secure_mobility_client Application.</t>
         </is>
       </c>
     </row>
@@ -11736,7 +11736,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>The CVE affects the Openfind Mail2000 (Version 7.0) on Application.</t>
+          <t>The CVE affects the Openfind Mail2000 Application.</t>
         </is>
       </c>
     </row>

--- a/scripts/SMET/datasets/enriched_dataset.xlsx
+++ b/scripts/SMET/datasets/enriched_dataset.xlsx
@@ -473,16 +473,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -510,16 +509,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -546,16 +544,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -584,16 +581,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -621,16 +617,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -659,16 +654,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is High.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is High.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -696,14 +690,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Medium.
-            The attacker requires None Authentication.
-            There is complete impact on Confidentiality.
-            There is complete impact on Integrity.
-            There is complete impact on Availability.
-            </t>
+          <t>The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Medium.
+The attacker requires None Authentication.
+There is complete impact on Confidentiality.
+There is complete impact on Integrity.
+There is complete impact on Availability.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -731,16 +723,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -768,16 +759,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -804,14 +794,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Medium.
-            The attacker requires None Authentication.
-            There is no impact on Confidentiality.
-            There is partial impact on Integrity.
-            There is no impact on Availability.
-            </t>
+          <t>The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Medium.
+The attacker requires None Authentication.
+There is no impact on Confidentiality.
+There is partial impact on Integrity.
+There is no impact on Availability.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -838,16 +826,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -876,16 +863,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -913,16 +899,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -950,16 +935,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -988,16 +972,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1025,16 +1008,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1063,16 +1045,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is Low impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is Low impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1100,16 +1081,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Adjacent Network Attack Vector. 
-            The Attack Complexity is High.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Adjacent Network Attack Vector.
+The Attack Complexity is High.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1137,16 +1117,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1173,14 +1152,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Single Authentication.
-            There is complete impact on Confidentiality.
-            There is complete impact on Integrity.
-            There is complete impact on Availability.
-            </t>
+          <t>The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Single Authentication.
+There is complete impact on Confidentiality.
+There is complete impact on Integrity.
+There is complete impact on Availability.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1208,16 +1185,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1245,16 +1221,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1283,16 +1258,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1321,16 +1295,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1358,16 +1331,15 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1395,16 +1367,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is High.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is Low impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is High.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is Low impact on Availability.
+</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1432,16 +1403,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1470,16 +1440,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1507,16 +1476,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1543,16 +1511,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1580,16 +1547,15 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1617,16 +1583,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Changed.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Changed.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1655,16 +1620,15 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Adjacent Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Adjacent Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1693,16 +1657,15 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1731,16 +1694,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1768,16 +1730,15 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1804,16 +1765,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1841,16 +1801,15 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1879,16 +1838,15 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Changed.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Changed.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1917,16 +1875,15 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Changed.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Changed.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1954,16 +1911,15 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1991,16 +1947,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2028,16 +1983,15 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2065,16 +2019,15 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Adjacent Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Changed.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Adjacent Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Changed.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2102,16 +2055,15 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2140,16 +2092,15 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2177,16 +2128,15 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is Low impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is Low impact on Availability.
+</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2215,16 +2165,15 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2252,16 +2201,15 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2290,14 +2238,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Medium.
-            The attacker requires None Authentication.
-            There is complete impact on Confidentiality.
-            There is complete impact on Integrity.
-            There is complete impact on Availability.
-            </t>
+          <t>The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Medium.
+The attacker requires None Authentication.
+There is complete impact on Confidentiality.
+There is complete impact on Integrity.
+There is complete impact on Availability.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2325,16 +2271,15 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2362,16 +2307,15 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2399,16 +2343,15 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2436,16 +2379,15 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2473,16 +2415,15 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2509,16 +2450,15 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Adjacent Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Adjacent Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2547,16 +2487,15 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is Low impact on Confidentiality.
-            There is High impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is Low impact on Confidentiality.
+There is High impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2585,16 +2524,15 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2623,16 +2561,15 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2661,16 +2598,15 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2697,16 +2633,15 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2734,16 +2669,15 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2772,16 +2706,15 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Adjacent Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Adjacent Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2809,16 +2742,15 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2846,16 +2778,15 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2883,16 +2814,15 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is High.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is High.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2920,16 +2850,15 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2957,16 +2886,15 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2995,16 +2923,15 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3032,16 +2959,15 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3070,16 +2996,15 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3107,16 +3032,15 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3145,16 +3069,15 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3181,16 +3104,15 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3218,16 +3140,15 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is High.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is High.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3256,16 +3177,15 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3293,16 +3213,15 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is High.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is High.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3331,16 +3250,15 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3368,16 +3286,15 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3406,16 +3323,15 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3443,16 +3359,15 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3480,16 +3395,15 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3516,16 +3430,15 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Changed.
-            There is High impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Changed.
+There is High impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3554,16 +3467,15 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3592,16 +3504,15 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3629,16 +3540,15 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3666,16 +3576,15 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3704,16 +3613,15 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3741,16 +3649,15 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3778,16 +3685,15 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3816,16 +3722,15 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3853,14 +3758,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires None Authentication.
-            There is partial impact on Confidentiality.
-            There is partial impact on Integrity.
-            There is partial impact on Availability.
-            </t>
+          <t>The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires None Authentication.
+There is partial impact on Confidentiality.
+There is partial impact on Integrity.
+There is partial impact on Availability.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3888,16 +3791,15 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is Low impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is Low impact on Availability.
+</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3926,16 +3828,15 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3963,16 +3864,15 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4000,16 +3900,15 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is High impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is High impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4038,16 +3937,15 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4074,16 +3972,15 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4112,16 +4009,15 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4149,16 +4045,15 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4186,16 +4081,15 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4224,16 +4118,15 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4262,16 +4155,15 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4299,16 +4191,15 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4337,16 +4228,15 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Changed.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Changed.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4374,16 +4264,15 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4412,16 +4301,15 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Changed.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Changed.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4448,16 +4336,15 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4485,16 +4372,15 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Changed.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Changed.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4525,16 +4411,15 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Adjacent Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Adjacent Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4563,16 +4448,15 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is High impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is High impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4599,16 +4483,15 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is High.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is High.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4636,16 +4519,15 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4674,16 +4556,15 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is Low impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is Low impact on Availability.
+</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4711,16 +4592,15 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4749,16 +4629,15 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Adjacent Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Changed.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Adjacent Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Changed.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4787,16 +4666,15 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4824,16 +4702,15 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4862,16 +4739,15 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4899,16 +4775,15 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4937,16 +4812,15 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4974,16 +4848,15 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5012,16 +4885,15 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5049,16 +4921,15 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5087,16 +4958,15 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5124,16 +4994,15 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is Low impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is Low impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5162,16 +5031,15 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5199,16 +5067,15 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is High.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is High.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5237,16 +5104,15 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5274,16 +5140,15 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5312,16 +5177,15 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5350,16 +5214,15 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5386,16 +5249,15 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5424,16 +5286,15 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is Low impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is Low impact on Availability.
+</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5462,16 +5323,15 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5499,16 +5359,15 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5537,16 +5396,15 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5574,16 +5432,15 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5611,16 +5468,15 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5649,16 +5505,15 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5686,16 +5541,15 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5724,16 +5578,15 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5762,16 +5615,15 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -5798,16 +5650,15 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5836,14 +5687,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Medium.
-            The attacker requires None Authentication.
-            There is complete impact on Confidentiality.
-            There is complete impact on Integrity.
-            There is complete impact on Availability.
-            </t>
+          <t>The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Medium.
+The attacker requires None Authentication.
+There is complete impact on Confidentiality.
+There is complete impact on Integrity.
+There is complete impact on Availability.</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -5870,16 +5719,15 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5907,14 +5755,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Medium.
-            The attacker requires None Authentication.
-            There is complete impact on Confidentiality.
-            There is complete impact on Integrity.
-            There is complete impact on Availability.
-            </t>
+          <t>The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Medium.
+The attacker requires None Authentication.
+There is complete impact on Confidentiality.
+There is complete impact on Integrity.
+There is complete impact on Availability.</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5942,16 +5788,15 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -5980,16 +5825,15 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6018,16 +5862,15 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6055,16 +5898,15 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6093,16 +5935,15 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6129,16 +5970,15 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6167,16 +6007,15 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6204,16 +6043,15 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6241,16 +6079,15 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6279,14 +6116,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Medium.
-            The attacker requires Single Authentication.
-            There is partial impact on Confidentiality.
-            There is partial impact on Integrity.
-            There is partial impact on Availability.
-            </t>
+          <t>The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Medium.
+The attacker requires Single Authentication.
+There is partial impact on Confidentiality.
+There is partial impact on Integrity.
+There is partial impact on Availability.</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6313,16 +6148,15 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6351,16 +6185,15 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is Low impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6389,16 +6222,15 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -6426,16 +6258,15 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -6463,16 +6294,15 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is High impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is High impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -6500,16 +6330,15 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6537,16 +6366,15 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6575,16 +6403,15 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -6612,16 +6439,15 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -6649,16 +6475,15 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -6687,16 +6512,15 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -6724,16 +6548,15 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -6762,14 +6585,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Medium.
-            The attacker requires None Authentication.
-            There is complete impact on Confidentiality.
-            There is complete impact on Integrity.
-            There is complete impact on Availability.
-            </t>
+          <t>The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Medium.
+The attacker requires None Authentication.
+There is complete impact on Confidentiality.
+There is complete impact on Integrity.
+There is complete impact on Availability.</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -6796,16 +6617,15 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is High.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is High.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -6833,16 +6653,15 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -6870,16 +6689,15 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -6908,16 +6726,15 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -6946,16 +6763,15 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -6983,16 +6799,15 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -7020,16 +6835,15 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is High.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is High.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7058,16 +6872,15 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7096,16 +6909,15 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -7134,16 +6946,15 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -7171,16 +6982,15 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -7209,16 +7019,15 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -7247,16 +7056,15 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is High.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Changed.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is High.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Changed.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -7284,14 +7092,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires None Authentication.
-            There is partial impact on Confidentiality.
-            There is partial impact on Integrity.
-            There is complete impact on Availability.
-            </t>
+          <t>The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires None Authentication.
+There is partial impact on Confidentiality.
+There is partial impact on Integrity.
+There is complete impact on Availability.</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -7319,16 +7125,15 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -7355,16 +7160,15 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is Low impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is Low impact on Availability.
+</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -7393,16 +7197,15 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -7431,16 +7234,15 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -7468,16 +7270,15 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -7505,16 +7306,15 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -7542,16 +7342,15 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -7579,16 +7378,15 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -7615,16 +7413,15 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -7652,16 +7449,15 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -7689,16 +7485,15 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -7727,16 +7522,15 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -7765,16 +7559,15 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is Low impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is Low impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -7802,16 +7595,15 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -7839,16 +7631,15 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -7876,16 +7667,15 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is Low impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is Low impact on Availability.
+</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -7914,16 +7704,15 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -7951,16 +7740,15 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -7988,16 +7776,15 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Physical Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Physical Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -8024,16 +7811,15 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -8062,16 +7848,15 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -8100,16 +7885,15 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -8138,16 +7922,15 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -8174,16 +7957,15 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -8211,16 +7993,15 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -8248,16 +8029,15 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -8286,16 +8066,15 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -8323,16 +8102,15 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -8360,16 +8138,15 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is Low impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is Low impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -8398,16 +8175,15 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -8436,16 +8212,15 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -8473,16 +8248,15 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -8511,16 +8285,15 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -8548,16 +8321,15 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -8586,16 +8358,15 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -8623,16 +8394,15 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -8661,16 +8431,15 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -8698,16 +8467,15 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is Low impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is Low impact on Availability.
+</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -8736,16 +8504,15 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -8773,16 +8540,15 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -8810,16 +8576,15 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -8848,16 +8613,15 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -8885,16 +8649,15 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -8923,16 +8686,15 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -8960,16 +8722,15 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -8996,14 +8757,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires None Authentication.
-            There is complete impact on Confidentiality.
-            There is complete impact on Integrity.
-            There is complete impact on Availability.
-            </t>
+          <t>The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires None Authentication.
+There is complete impact on Confidentiality.
+There is complete impact on Integrity.
+There is complete impact on Availability.</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -9031,16 +8790,15 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -9067,16 +8825,15 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -9104,16 +8861,15 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is High.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is Low impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is High.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is Low impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -9141,16 +8897,15 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is Low impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is Low impact on Availability.
+</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -9177,16 +8932,15 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -9214,16 +8968,15 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Changed.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Changed.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -9252,16 +9005,15 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Changed.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Changed.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -9289,16 +9041,15 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -9327,16 +9078,15 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -9365,16 +9115,15 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -9402,16 +9151,15 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Adjacent Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Adjacent Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -9440,16 +9188,15 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -9477,16 +9224,15 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -9515,16 +9261,15 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -9552,16 +9297,15 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -9590,16 +9334,15 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -9628,16 +9371,15 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is Low impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is Low impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -9665,16 +9407,15 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -9702,16 +9443,15 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -9740,16 +9480,15 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -9778,16 +9517,15 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -9816,16 +9554,15 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -9854,16 +9591,15 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -9890,16 +9626,15 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -9926,16 +9661,15 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -9963,16 +9697,15 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -10000,16 +9733,15 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -10038,16 +9770,15 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -10075,16 +9806,15 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -10112,16 +9842,15 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -10149,16 +9878,15 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -10186,16 +9914,15 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -10222,16 +9949,15 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -10259,16 +9985,15 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -10296,16 +10021,15 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -10333,16 +10057,15 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is High.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is High.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -10370,16 +10093,15 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -10407,16 +10129,15 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -10444,16 +10165,15 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -10481,16 +10201,15 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Changed.
-            There is Low impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Changed.
+There is Low impact on Confidentiality.
+There is Low impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -10519,16 +10238,15 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -10556,16 +10274,15 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -10594,16 +10311,15 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -10631,16 +10347,15 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -10669,16 +10384,15 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -10706,16 +10420,15 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Changed.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Changed.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -10744,16 +10457,15 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -10780,16 +10492,15 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is High.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is High.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -10817,16 +10528,15 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -10854,16 +10564,15 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -10891,16 +10600,15 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -10928,16 +10636,15 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -10965,16 +10672,15 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is High.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is High.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -11003,16 +10709,15 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -11041,16 +10746,15 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -11079,16 +10783,15 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Changed.
-            There is No impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Changed.
+There is No impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -11117,16 +10820,15 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is Low impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -11155,16 +10857,15 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is High.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is High.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -11193,16 +10894,15 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -11230,16 +10930,15 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -11266,16 +10965,15 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -11303,16 +11001,15 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -11341,16 +11038,15 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -11378,16 +11074,15 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is Low impact on Integrity.
-            There is Low impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is Low impact on Integrity.
+There is Low impact on Availability.
+</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -11416,16 +11111,15 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -11454,16 +11148,15 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -11492,16 +11185,15 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -11530,16 +11222,15 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is No impact on Confidentiality.
-            There is No impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is No impact on Confidentiality.
+There is No impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -11567,16 +11258,15 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is Low impact on Confidentiality.
-            There is No impact on Integrity.
-            There is No impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is Low impact on Confidentiality.
+There is No impact on Integrity.
+There is No impact on Availability.
+</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -11604,16 +11294,15 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -11642,16 +11331,15 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires No Privilleges.
-            The attacker Requires User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires No Privilleges.
+The attacker Requires User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -11679,16 +11367,15 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Local Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires Low Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Local Attack Vector.
+The Attack Complexity is Low.
+The attacker requires Low Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -11717,16 +11404,15 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            The CVE is exploited via the Network Attack Vector. 
-            The Attack Complexity is Low.
-            The attacker requires High Privilleges.
-            The attacker Does Not Require User Interaction.
-            The Scope of the attack is Unchanged.
-            There is High impact on Confidentiality.
-            There is High impact on Integrity.
-            There is High impact on Availability.
-            </t>
+          <t xml:space="preserve">The CVE is exploited via the Network Attack Vector.
+The Attack Complexity is Low.
+The attacker requires High Privilleges.
+The attacker Does Not Require User Interaction.
+The Scope of the attack is Unchanged.
+There is High impact on Confidentiality.
+There is High impact on Integrity.
+There is High impact on Availability.
+</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
